--- a/teaching/traditional_assets/database/data/burkina_faso/burkina_faso_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/burkina_faso/burkina_faso_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.09390000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="E2">
-        <v>0.112</v>
+        <v>0.108</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>73.3</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="L2">
-        <v>0.4949358541525995</v>
+        <v>0.4860178970917226</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,31 +636,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>42.2</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.07185424825472503</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.2453090905822261</v>
+        <v>0.2676335850345893</v>
       </c>
       <c r="X2">
-        <v>0.06190132860044789</v>
+        <v>0.05746860477704602</v>
       </c>
       <c r="Y2">
-        <v>0.1834077619817782</v>
+        <v>0.2101649802575433</v>
       </c>
       <c r="Z2">
-        <v>0.2169912500219775</v>
+        <v>0.6624675805854021</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06190132860044789</v>
+        <v>0.05746860477704602</v>
       </c>
       <c r="AC2">
-        <v>-0.06190132860044789</v>
+        <v>-0.05746860477704602</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-42.2</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.07741698770867733</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-0.1477591036414566</v>
+        <v>0</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -701,7 +701,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bank of Africa-Burkina Faso (BRVM:BOABF)</t>
+          <t>Coris Bank International SA (BRVM:CBIBF)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -709,12 +709,6 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.09390000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.112</v>
-      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -728,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>30.2</v>
+        <v>52.5</v>
       </c>
       <c r="L3">
-        <v>0.4480712166172106</v>
+        <v>0.521868787276342</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,31 +749,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>42.2</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.3035971223021583</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.2862559241706161</v>
+        <v>0.2382032667876588</v>
       </c>
       <c r="X3">
-        <v>0.06190132860044789</v>
+        <v>0.05746860477704602</v>
       </c>
       <c r="Y3">
-        <v>0.2243545955701682</v>
+        <v>0.1807346620106128</v>
       </c>
       <c r="Z3">
-        <v>1.218453973533878</v>
+        <v>0.5431965442764579</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06190132860044789</v>
+        <v>0.05746860477704602</v>
       </c>
       <c r="AC3">
-        <v>-0.06190132860044789</v>
+        <v>-0.05746860477704602</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -791,19 +785,13 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-42.2</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
       <c r="AJ3">
-        <v>-0.4359504132231405</v>
-      </c>
-      <c r="AK3">
-        <v>-0.5672043010752689</v>
+        <v>0</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -820,7 +808,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coris Bank International SA (BRVM:CBIBF)</t>
+          <t>Bank of Africa-Burkina Faso (BRVM:BOABF)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -828,6 +816,12 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>-0.16</v>
+      </c>
+      <c r="E4">
+        <v>0.108</v>
+      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -841,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>43.1</v>
+        <v>34.4</v>
       </c>
       <c r="L4">
-        <v>0.5340768277571252</v>
+        <v>0.4398976982097186</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -874,25 +868,25 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.204362256993836</v>
+        <v>0.2970639032815199</v>
       </c>
       <c r="X4">
-        <v>0.06190132860044789</v>
+        <v>0.05746860477704602</v>
       </c>
       <c r="Y4">
-        <v>0.1424609283933881</v>
+        <v>0.2395952985044739</v>
       </c>
       <c r="Z4">
-        <v>0.1286670918367347</v>
+        <v>0.9232585596221962</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06190132860044789</v>
+        <v>0.05746860477704602</v>
       </c>
       <c r="AC4">
-        <v>-0.06190132860044789</v>
+        <v>-0.05746860477704602</v>
       </c>
       <c r="AD4">
         <v>0</v>
